--- a/data/trans_orig/P36BPD06_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD06_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>152540</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>133357</v>
+        <v>132208</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>173206</v>
+        <v>172567</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2665432358400094</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2330232279840129</v>
+        <v>0.2310154275817789</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3026555165782006</v>
+        <v>0.3015374084620954</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>368</v>
@@ -762,19 +762,19 @@
         <v>233722</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>213348</v>
+        <v>214458</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>252901</v>
+        <v>257372</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2850450701015181</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.260197501245345</v>
+        <v>0.2615507929193596</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3084362771356125</v>
+        <v>0.3138886537945476</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>542</v>
@@ -783,19 +783,19 @@
         <v>386261</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>358617</v>
+        <v>359328</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>416726</v>
+        <v>420852</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.277439750883928</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2575837348846832</v>
+        <v>0.2580941886056222</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2993219201445892</v>
+        <v>0.3022854508254887</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>419749</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>399083</v>
+        <v>399722</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>438932</v>
+        <v>440081</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7334567641599906</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6973444834218</v>
+        <v>0.6984625915379047</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7669767720159871</v>
+        <v>0.7689845724182215</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1055</v>
@@ -833,19 +833,19 @@
         <v>586224</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>567045</v>
+        <v>562574</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>606598</v>
+        <v>605488</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7149549298984819</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6915637228643876</v>
+        <v>0.6861113462054521</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7398024987546551</v>
+        <v>0.7384492070806404</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1565</v>
@@ -854,19 +854,19 @@
         <v>1005974</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>975509</v>
+        <v>971383</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1033618</v>
+        <v>1032907</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.722560249116072</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7006780798554104</v>
+        <v>0.6977145491745113</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7424162651153167</v>
+        <v>0.7419058113943778</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>568359</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>526403</v>
+        <v>517486</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>621383</v>
+        <v>617547</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2554884624020738</v>
+        <v>0.2554884624020739</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.236628521271218</v>
+        <v>0.2326200871308588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2793241660410427</v>
+        <v>0.2775994025735469</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>673</v>
@@ -979,19 +979,19 @@
         <v>544214</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>506178</v>
+        <v>505032</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>584070</v>
+        <v>580181</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2510745048875546</v>
+        <v>0.2510745048875545</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2335267909061919</v>
+        <v>0.2329978389905884</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2694622354760012</v>
+        <v>0.2676681290914378</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1164</v>
@@ -1000,19 +1000,19 @@
         <v>1112572</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1053515</v>
+        <v>1053512</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1170980</v>
+        <v>1170578</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2533101541003592</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2398640645595166</v>
+        <v>0.2398632701058695</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.266608356166045</v>
+        <v>0.2665167643028487</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1656237</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1603213</v>
+        <v>1607049</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1698193</v>
+        <v>1707110</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.744511537597926</v>
+        <v>0.7445115375979261</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7206758339589567</v>
+        <v>0.7224005974264529</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.763371478728782</v>
+        <v>0.7673799128691404</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2242</v>
@@ -1050,19 +1050,19 @@
         <v>1623325</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1583469</v>
+        <v>1587358</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1661361</v>
+        <v>1662507</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7489254951124455</v>
+        <v>0.7489254951124454</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7305377645239988</v>
+        <v>0.7323318709085621</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7664732090938082</v>
+        <v>0.7670021610094117</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3737</v>
@@ -1071,19 +1071,19 @@
         <v>3279563</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3221155</v>
+        <v>3221557</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3338620</v>
+        <v>3338623</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7466898458996407</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7333916438339548</v>
+        <v>0.7334832356971516</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7601359354404832</v>
+        <v>0.7601367298941304</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>121644</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100798</v>
+        <v>103269</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143662</v>
+        <v>146328</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1715775321665685</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.142175157439822</v>
+        <v>0.145659501013382</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2026344049609909</v>
+        <v>0.2063945748576619</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>171</v>
@@ -1196,19 +1196,19 @@
         <v>130210</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>111481</v>
+        <v>114437</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>147218</v>
+        <v>150100</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1771867041468093</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1517002580822144</v>
+        <v>0.1557229554618519</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.200329829805732</v>
+        <v>0.204251843802531</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>291</v>
@@ -1217,19 +1217,19 @@
         <v>251854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>225385</v>
+        <v>225684</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>280793</v>
+        <v>281301</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.174432437509414</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1561003117163819</v>
+        <v>0.1563073918096838</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1944751905621385</v>
+        <v>0.1948268205489413</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>587328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>565310</v>
+        <v>562644</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>608174</v>
+        <v>605703</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8284224678334317</v>
+        <v>0.8284224678334315</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7973655950390091</v>
+        <v>0.7936054251423379</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.857824842560178</v>
+        <v>0.854340498986618</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>833</v>
@@ -1267,19 +1267,19 @@
         <v>604667</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>587659</v>
+        <v>584777</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>623396</v>
+        <v>620440</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8228132958531906</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.799670170194268</v>
+        <v>0.7957481561974692</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8482997419177858</v>
+        <v>0.8442770445381481</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1392</v>
@@ -1288,19 +1288,19 @@
         <v>1191995</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1163056</v>
+        <v>1162548</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1218464</v>
+        <v>1218165</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8255675624905862</v>
+        <v>0.825567562490586</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8055248094378615</v>
+        <v>0.8051731794510588</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8438996882836179</v>
+        <v>0.8436926081903161</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>842542</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>788302</v>
+        <v>790547</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>896705</v>
+        <v>895946</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2403241308621472</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2248529725753972</v>
+        <v>0.225493294722774</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2557733683300579</v>
+        <v>0.255556982083952</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1212</v>
@@ -1413,19 +1413,19 @@
         <v>908146</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>858209</v>
+        <v>863170</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>954734</v>
+        <v>955472</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2439703007957625</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2305550680102811</v>
+        <v>0.2318875947160875</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2564860793886155</v>
+        <v>0.2566843360037606</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1997</v>
@@ -1434,19 +1434,19 @@
         <v>1750688</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1673275</v>
+        <v>1677056</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1822745</v>
+        <v>1824715</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2422018223310881</v>
+        <v>0.2422018223310882</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.231492059333558</v>
+        <v>0.232015162015698</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2521706923940461</v>
+        <v>0.2524431808568493</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>2663315</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2609152</v>
+        <v>2609911</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2717555</v>
+        <v>2715310</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7596758691378528</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7442266316699421</v>
+        <v>0.7444430179160482</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7751470274246027</v>
+        <v>0.7745067052772259</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4130</v>
@@ -1484,19 +1484,19 @@
         <v>2814216</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2767628</v>
+        <v>2766890</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2864153</v>
+        <v>2859192</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7560296992042375</v>
+        <v>0.7560296992042373</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7435139206113845</v>
+        <v>0.7433156639962395</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7694449319897185</v>
+        <v>0.7681124052839126</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6694</v>
@@ -1505,19 +1505,19 @@
         <v>5477531</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5405474</v>
+        <v>5403504</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5554944</v>
+        <v>5551163</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7577981776689119</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7478293076059539</v>
+        <v>0.7475568191431505</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7685079406664419</v>
+        <v>0.7679848379843022</v>
       </c>
     </row>
     <row r="15">
